--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>tasks</t>
   </si>
@@ -66,14 +66,34 @@
   </si>
   <si>
     <t>implement permanent brusher instead of dragger</t>
+  </si>
+  <si>
+    <t>expandable/collapsable div; inset map</t>
+  </si>
+  <si>
+    <t>tooltip</t>
+  </si>
+  <si>
+    <t>eric/matt</t>
+  </si>
+  <si>
+    <t>proportional symbolization</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -101,8 +121,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,7 +436,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -453,6 +474,12 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -462,7 +489,24 @@
         <v>5</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>tasks</t>
   </si>
@@ -78,6 +78,27 @@
   </si>
   <si>
     <t>proportional symbolization</t>
+  </si>
+  <si>
+    <t>design and test icicle</t>
+  </si>
+  <si>
+    <t>move into proper placement</t>
+  </si>
+  <si>
+    <t>switch filter functionality</t>
+  </si>
+  <si>
+    <t>highlight and click functionality</t>
+  </si>
+  <si>
+    <t>info panel zoom</t>
+  </si>
+  <si>
+    <t>better icicle highlighting and clicking features (click on waste disposal category and still show site…)</t>
+  </si>
+  <si>
+    <t>simplify basemap</t>
   </si>
 </sst>
 </file>
@@ -101,12 +122,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,9 +148,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,19 +432,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.85546875" customWidth="1"/>
     <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -435,73 +466,114 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>5</v>
       </c>
     </row>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>tasks</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>simplify basemap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ask heather re: grouping waste categories, </t>
+  </si>
+  <si>
+    <t>transition icicle svg</t>
+  </si>
+  <si>
+    <t>better switch filter css</t>
+  </si>
+  <si>
+    <t>put icicile into callback queue</t>
   </si>
 </sst>
 </file>
@@ -432,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +569,7 @@
       <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -575,6 +587,26 @@
       </c>
       <c r="B14" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>tasks</t>
   </si>
@@ -111,6 +111,24 @@
   </si>
   <si>
     <t>put icicile into callback queue</t>
+  </si>
+  <si>
+    <t>footer: data update, sources</t>
+  </si>
+  <si>
+    <t>info panel : census data</t>
+  </si>
+  <si>
+    <t>mess with changing symbology of waste sites: no color</t>
+  </si>
+  <si>
+    <t>description of the site after "Welcome to Haz Mat Mapper"</t>
+  </si>
+  <si>
+    <t>add show all exporters/importers checkboxes to filter menu</t>
+  </si>
+  <si>
+    <t>create color key to coordinate site color across icicle, map, and pov chart</t>
   </si>
 </sst>
 </file>
@@ -160,10 +178,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,19 +614,64 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>tasks</t>
   </si>
@@ -95,9 +95,6 @@
     <t>info panel zoom</t>
   </si>
   <si>
-    <t>better icicle highlighting and clicking features (click on waste disposal category and still show site…)</t>
-  </si>
-  <si>
     <t>simplify basemap</t>
   </si>
   <si>
@@ -113,22 +110,34 @@
     <t>put icicile into callback queue</t>
   </si>
   <si>
-    <t>footer: data update, sources</t>
-  </si>
-  <si>
     <t>info panel : census data</t>
   </si>
   <si>
     <t>mess with changing symbology of waste sites: no color</t>
   </si>
   <si>
-    <t>description of the site after "Welcome to Haz Mat Mapper"</t>
-  </si>
-  <si>
     <t>add show all exporters/importers checkboxes to filter menu</t>
   </si>
   <si>
     <t>create color key to coordinate site color across icicle, map, and pov chart</t>
+  </si>
+  <si>
+    <t>description of the site after "Welcome to Haz Mat Mapper"/opening welcome div?</t>
+  </si>
+  <si>
+    <t>footer: data updated, sources/explanations</t>
+  </si>
+  <si>
+    <t>better icicle highlighting and clicking features (click on waste disposal category and show sites…)</t>
+  </si>
+  <si>
+    <t>1. demodata</t>
+  </si>
+  <si>
+    <t>2 other infopanel stuff</t>
+  </si>
+  <si>
+    <t>0 coordination</t>
   </si>
 </sst>
 </file>
@@ -466,7 +475,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +508,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -602,7 +611,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -610,67 +619,79 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
   </sheetData>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>tasks</t>
   </si>
@@ -110,9 +110,6 @@
     <t>put icicile into callback queue</t>
   </si>
   <si>
-    <t>info panel : census data</t>
-  </si>
-  <si>
     <t>mess with changing symbology of waste sites: no color</t>
   </si>
   <si>
@@ -138,6 +135,12 @@
   </si>
   <si>
     <t>0 coordination</t>
+  </si>
+  <si>
+    <t>anonymous function for displaying exporter/importer data in viewer</t>
+  </si>
+  <si>
+    <t>info panel : census data, formatting and axes</t>
   </si>
 </sst>
 </file>
@@ -474,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +502,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -507,7 +510,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B3" t="s">
@@ -523,7 +526,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
@@ -569,7 +572,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
@@ -611,7 +614,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -639,50 +642,52 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
